--- a/Chapter1/Code/LA_example.xlsx
+++ b/Chapter1/Code/LA_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Documents/MDLforBeginners/Chapter1/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F97D20-4DDB-4640-A103-91535C1814D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C60EE-ED0E-A142-A47B-7AB9D77D94B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{637A412D-03CE-0A45-BF4A-D8C57A98DDF1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>姓名</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>考前睡眠(1-正常休息;0-熬夜)</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>结果</t>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +448,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90FF809-E762-1145-A8DB-1105CE11078B}">
-  <dimension ref="F4:J10"/>
+  <dimension ref="F4:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="172" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,6 +889,114 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>56</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f>G14*0.6+H14*0.3+I14*0.1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="31">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" ref="J15:J18" si="1">G15*0.6+H15*0.3+I15*0.1</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="31">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>29.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="31">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>60</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="1"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="32">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>59</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
     </row>
